--- a/src/main/resources/excel.xlsx
+++ b/src/main/resources/excel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\77542\Desktop\basics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\77542\Desktop\showdiff\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E2749EA-AB6D-494B-8A43-1D7F7C4543FF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E298F0-C133-4508-8B40-BC48C6930E36}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$14</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>应用系统名称</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -92,10 +92,6 @@
   </si>
   <si>
     <t>http://ew.epicc.com.cn</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.cos.yxgl-picc.cn:9000/p2pd/servlet/dispatch</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -592,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -625,7 +621,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -633,31 +629,31 @@
         <v>5</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
@@ -665,47 +661,47 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="8" t="s">
-        <v>7</v>
+      <c r="A9" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="9" t="s">
-        <v>8</v>
+      <c r="A10" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="10" t="s">
-        <v>9</v>
+      <c r="A11" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="9" t="s">
-        <v>11</v>
+      <c r="A12" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="5" t="s">
-        <v>12</v>
+      <c r="A13" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
@@ -713,19 +709,11 @@
         <v>14</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="6" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B15" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:B14" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{7C113C51-7E05-4ED9-8B53-0C9E3EA65A9E}"/>
